--- a/!OLD_MANSURA/Python/HISTORY/Daily/2022-12-04.xlsx
+++ b/!OLD_MANSURA/Python/HISTORY/Daily/2022-12-04.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,17 +509,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>$802.4</t>
+          <t>$0.0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$160.48</t>
+          <t>$0.0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$641.92</t>
+          <t>$0.0</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>foreandr $160.48</t>
+          <t>foreandr $0.00</t>
         </is>
       </c>
     </row>
@@ -576,97 +576,6 @@
       <c r="H13" t="inlineStr">
         <is>
           <t>IN ORDER</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>55</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>%100.0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>433.28</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Valen</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Tyeasha 216.64</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Shenise 108.32</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Natlie 54.16</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Majid 27.08</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Maigan 13.54</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Leoncio 6.77</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Joelene 3.38</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Richrd 1.69</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Joshwa 0.85</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Joh 0.42</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Jawanna 0.21</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Devion 0.1</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Conway 0.05</t>
         </is>
       </c>
     </row>
